--- a/src/result/result1_1.xlsx
+++ b/src/result/result1_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Folder Collection\Maths_Modeling_2024\src\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AC0C6C-E336-4492-B1ED-D736118C7653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FA023C-4F42-415C-91AB-5159A9606C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5170" yWindow="3450" windowWidth="28800" windowHeight="15370" tabRatio="537" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44570" yWindow="2470" windowWidth="28800" windowHeight="15370" tabRatio="537" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -950,8 +950,8 @@
   </sheetPr>
   <dimension ref="A1:AS87"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O81" sqref="O81"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:AQ83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
         <v>80</v>
-      </c>
-      <c r="J2" s="15">
-        <v>0</v>
       </c>
       <c r="K2" s="15">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I3" s="15">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J3" s="15">
         <v>0</v>
@@ -1377,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="15">
-        <v>35</v>
+        <v>24.5</v>
       </c>
       <c r="J4" s="15">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K4" s="15">
         <v>0</v>
@@ -1504,10 +1504,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="15">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I5" s="15">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="J5" s="15">
         <v>0</v>
@@ -1637,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="15">
-        <v>68</v>
+        <v>47.6</v>
       </c>
       <c r="J6" s="15">
-        <v>0</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="K6" s="15">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E8" s="15">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M8" s="15">
         <v>0</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L10" s="15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M10" s="15">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="K11" s="15">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L11" s="15">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M11" s="15">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="15">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E12" s="15">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="15">
-        <v>35</v>
+        <v>10.5</v>
       </c>
       <c r="L12" s="15">
         <v>0</v>
@@ -2553,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
         <v>20</v>
-      </c>
-      <c r="L13" s="15">
-        <v>0</v>
       </c>
       <c r="M13" s="15">
         <v>0</v>
@@ -2683,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="15">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="L14" s="15">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="M14" s="15">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E15" s="15">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="15">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
@@ -2943,10 +2943,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
         <v>28</v>
-      </c>
-      <c r="L16" s="15">
-        <v>0</v>
       </c>
       <c r="M16" s="15">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
         <v>25</v>
-      </c>
-      <c r="L17" s="15">
-        <v>0</v>
       </c>
       <c r="M17" s="15">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="15">
-        <v>0</v>
+        <v>58.947367999999997</v>
       </c>
       <c r="F18" s="15">
         <v>0</v>
@@ -3203,10 +3203,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="15">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="L18" s="15">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="M18" s="15">
         <v>0</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="15">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="E19" s="15">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="15">
-        <v>55</v>
+        <v>16.5</v>
       </c>
       <c r="M19" s="15">
         <v>0</v>
@@ -4119,13 +4119,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N25" s="15">
         <v>0</v>
       </c>
       <c r="O25" s="15">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P25" s="15">
         <v>0</v>
@@ -4249,13 +4249,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="15">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N26" s="15">
         <v>0</v>
       </c>
       <c r="O26" s="15">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="P26" s="15">
         <v>0</v>
@@ -4542,25 +4542,25 @@
         <v>0</v>
       </c>
       <c r="X28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="15">
         <v>15</v>
-      </c>
-      <c r="Y28" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="15">
-        <v>0</v>
       </c>
       <c r="AE28" s="15">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T29" s="15">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Y29" s="15">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T30" s="15">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="15">
         <v>0</v>
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="15">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T31" s="15">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="15">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="Y31" s="15">
         <v>0</v>
@@ -5047,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T32" s="15">
         <v>0</v>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="15">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE32" s="15">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T33" s="15">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="15">
         <v>0</v>
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="15">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="T34" s="15">
         <v>0</v>
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="15">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="15">
         <v>0</v>
@@ -5567,43 +5567,43 @@
         <v>0</v>
       </c>
       <c r="S36" s="15">
+        <v>0</v>
+      </c>
+      <c r="T36" s="15">
+        <v>0</v>
+      </c>
+      <c r="U36" s="15">
+        <v>0</v>
+      </c>
+      <c r="V36" s="15">
+        <v>0</v>
+      </c>
+      <c r="W36" s="15">
+        <v>0</v>
+      </c>
+      <c r="X36" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T36" s="15">
-        <v>0</v>
-      </c>
-      <c r="U36" s="15">
-        <v>0</v>
-      </c>
-      <c r="V36" s="15">
-        <v>0</v>
-      </c>
-      <c r="W36" s="15">
-        <v>0</v>
-      </c>
-      <c r="X36" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="15">
-        <v>0</v>
       </c>
       <c r="AF36" s="15">
         <v>0</v>
@@ -5697,34 +5697,34 @@
         <v>0</v>
       </c>
       <c r="S37" s="15">
+        <v>0</v>
+      </c>
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>0</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+      <c r="X37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T37" s="15">
-        <v>0</v>
-      </c>
-      <c r="U37" s="15">
-        <v>0</v>
-      </c>
-      <c r="V37" s="15">
-        <v>0</v>
-      </c>
-      <c r="W37" s="15">
-        <v>0</v>
-      </c>
-      <c r="X37" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="15">
-        <v>0</v>
       </c>
       <c r="AC37" s="15">
         <v>0</v>
@@ -5827,34 +5827,34 @@
         <v>0</v>
       </c>
       <c r="S38" s="15">
+        <v>0</v>
+      </c>
+      <c r="T38" s="15">
+        <v>0</v>
+      </c>
+      <c r="U38" s="15">
+        <v>0</v>
+      </c>
+      <c r="V38" s="15">
+        <v>0</v>
+      </c>
+      <c r="W38" s="15">
+        <v>0</v>
+      </c>
+      <c r="X38" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T38" s="15">
-        <v>0</v>
-      </c>
-      <c r="U38" s="15">
-        <v>0</v>
-      </c>
-      <c r="V38" s="15">
-        <v>0</v>
-      </c>
-      <c r="W38" s="15">
-        <v>0</v>
-      </c>
-      <c r="X38" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="15">
-        <v>0</v>
       </c>
       <c r="AC38" s="15">
         <v>0</v>
@@ -6087,43 +6087,43 @@
         <v>0</v>
       </c>
       <c r="S40" s="15">
+        <v>0</v>
+      </c>
+      <c r="T40" s="15">
+        <v>0</v>
+      </c>
+      <c r="U40" s="15">
+        <v>0</v>
+      </c>
+      <c r="V40" s="15">
+        <v>0</v>
+      </c>
+      <c r="W40" s="15">
+        <v>0</v>
+      </c>
+      <c r="X40" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T40" s="15">
-        <v>0</v>
-      </c>
-      <c r="U40" s="15">
-        <v>0</v>
-      </c>
-      <c r="V40" s="15">
-        <v>0</v>
-      </c>
-      <c r="W40" s="15">
-        <v>0</v>
-      </c>
-      <c r="X40" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="15">
-        <v>0</v>
       </c>
       <c r="AF40" s="15">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC42" s="15">
         <v>0</v>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="AE42" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="15">
         <v>0</v>
@@ -6477,43 +6477,43 @@
         <v>0</v>
       </c>
       <c r="S43" s="15">
+        <v>0</v>
+      </c>
+      <c r="T43" s="15">
+        <v>0</v>
+      </c>
+      <c r="U43" s="15">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15">
+        <v>0</v>
+      </c>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+      <c r="X43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T43" s="15">
-        <v>0</v>
-      </c>
-      <c r="U43" s="15">
-        <v>0</v>
-      </c>
-      <c r="V43" s="15">
-        <v>0</v>
-      </c>
-      <c r="W43" s="15">
-        <v>0</v>
-      </c>
-      <c r="X43" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="15">
-        <v>0</v>
       </c>
       <c r="AF43" s="15">
         <v>0</v>
@@ -6607,43 +6607,43 @@
         <v>0</v>
       </c>
       <c r="S44" s="15">
+        <v>0</v>
+      </c>
+      <c r="T44" s="15">
+        <v>0</v>
+      </c>
+      <c r="U44" s="15">
+        <v>0</v>
+      </c>
+      <c r="V44" s="15">
+        <v>0</v>
+      </c>
+      <c r="W44" s="15">
+        <v>0</v>
+      </c>
+      <c r="X44" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T44" s="15">
-        <v>0</v>
-      </c>
-      <c r="U44" s="15">
-        <v>0</v>
-      </c>
-      <c r="V44" s="15">
-        <v>0</v>
-      </c>
-      <c r="W44" s="15">
-        <v>0</v>
-      </c>
-      <c r="X44" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="15">
-        <v>0</v>
       </c>
       <c r="AF44" s="15">
         <v>0</v>
@@ -6737,43 +6737,43 @@
         <v>0</v>
       </c>
       <c r="S45" s="15">
+        <v>0</v>
+      </c>
+      <c r="T45" s="15">
+        <v>0</v>
+      </c>
+      <c r="U45" s="15">
+        <v>0</v>
+      </c>
+      <c r="V45" s="15">
+        <v>0</v>
+      </c>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+      <c r="X45" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T45" s="15">
-        <v>0</v>
-      </c>
-      <c r="U45" s="15">
-        <v>0</v>
-      </c>
-      <c r="V45" s="15">
-        <v>0</v>
-      </c>
-      <c r="W45" s="15">
-        <v>0</v>
-      </c>
-      <c r="X45" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="15">
-        <v>0</v>
       </c>
       <c r="AF45" s="15">
         <v>0</v>
@@ -6894,16 +6894,16 @@
         <v>0</v>
       </c>
       <c r="AB46" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC46" s="15">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="AD46" s="15">
         <v>0</v>
       </c>
       <c r="AE46" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="15">
         <v>0</v>
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC47" s="15">
         <v>0</v>
@@ -7033,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="15">
         <v>0</v>
@@ -7257,34 +7257,34 @@
         <v>0</v>
       </c>
       <c r="S49" s="15">
+        <v>0</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>0</v>
+      </c>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+      <c r="X49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T49" s="15">
-        <v>0</v>
-      </c>
-      <c r="U49" s="15">
-        <v>0</v>
-      </c>
-      <c r="V49" s="15">
-        <v>0</v>
-      </c>
-      <c r="W49" s="15">
-        <v>0</v>
-      </c>
-      <c r="X49" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="15">
-        <v>0</v>
       </c>
       <c r="AC49" s="15">
         <v>0</v>
@@ -7423,10 +7423,10 @@
         <v>0</v>
       </c>
       <c r="AE50" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="15">
         <v>0.6</v>
-      </c>
-      <c r="AF50" s="15">
-        <v>0</v>
       </c>
       <c r="AG50" s="15">
         <v>0</v>
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC51" s="15">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="AE51" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="15">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="15">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="V53" s="15">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="AH53" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AI53" s="15">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC54" s="15">
         <v>0</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="AH54" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="15">
         <v>0</v>
@@ -8223,13 +8223,13 @@
         <v>0</v>
       </c>
       <c r="AK56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="15">
         <v>15</v>
-      </c>
-      <c r="AL56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM56" s="15">
-        <v>0</v>
       </c>
       <c r="AN56" s="15">
         <v>0</v>
@@ -8352,10 +8352,10 @@
         <v>0</v>
       </c>
       <c r="AK57" s="15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL57" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM57" s="15">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="AK58" s="15">
-        <v>14</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AL58" s="15">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AM58" s="15">
         <v>0</v>
@@ -8739,10 +8739,10 @@
         <v>0</v>
       </c>
       <c r="AK60" s="15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL60" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM60" s="15">
         <v>0</v>
@@ -8868,13 +8868,13 @@
         <v>0</v>
       </c>
       <c r="AK61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="15">
         <v>12</v>
-      </c>
-      <c r="AL61" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM61" s="15">
-        <v>0</v>
       </c>
       <c r="AN61" s="15">
         <v>0</v>
@@ -8997,13 +8997,13 @@
         <v>0</v>
       </c>
       <c r="AK62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="15">
         <v>22</v>
-      </c>
-      <c r="AL62" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM62" s="15">
-        <v>0</v>
       </c>
       <c r="AN62" s="15">
         <v>0</v>
@@ -9126,13 +9126,13 @@
         <v>0</v>
       </c>
       <c r="AK63" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AM63" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN63" s="15">
         <v>0</v>
@@ -9393,13 +9393,13 @@
         <v>0</v>
       </c>
       <c r="AN65" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO65" s="15">
         <v>0</v>
       </c>
       <c r="AP65" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ65" s="15">
         <v>0</v>
@@ -9651,13 +9651,13 @@
         <v>0</v>
       </c>
       <c r="AN67" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO67" s="15">
         <v>0</v>
       </c>
       <c r="AP67" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ67" s="15">
         <v>0</v>
@@ -9786,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ68" s="15">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ69" s="15">
         <v>0</v>
@@ -10038,13 +10038,13 @@
         <v>0</v>
       </c>
       <c r="AN70" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO70" s="15">
         <v>0</v>
       </c>
       <c r="AP70" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ70" s="15">
         <v>0</v>
@@ -10296,13 +10296,13 @@
         <v>0</v>
       </c>
       <c r="AN72" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO72" s="15">
         <v>0</v>
       </c>
       <c r="AP72" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ72" s="15">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>0</v>
       </c>
       <c r="AN73" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO73" s="15">
         <v>0</v>
       </c>
       <c r="AP73" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ73" s="15">
         <v>0</v>
@@ -10554,13 +10554,13 @@
         <v>0</v>
       </c>
       <c r="AN74" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO74" s="15">
         <v>0</v>
       </c>
       <c r="AP74" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ74" s="15">
         <v>0</v>
@@ -10683,13 +10683,13 @@
         <v>0</v>
       </c>
       <c r="AN75" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO75" s="15">
         <v>0</v>
       </c>
       <c r="AP75" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ75" s="15">
         <v>0</v>
@@ -10818,7 +10818,7 @@
         <v>0</v>
       </c>
       <c r="AP76" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ76" s="15">
         <v>0</v>
@@ -10941,13 +10941,13 @@
         <v>0</v>
       </c>
       <c r="AN77" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO77" s="15">
         <v>0</v>
       </c>
       <c r="AP77" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ77" s="15">
         <v>0</v>
@@ -11070,13 +11070,13 @@
         <v>0</v>
       </c>
       <c r="AN78" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO78" s="15">
         <v>0</v>
       </c>
       <c r="AP78" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ78" s="15">
         <v>0</v>
@@ -11199,13 +11199,13 @@
         <v>0</v>
       </c>
       <c r="AN79" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO79" s="15">
         <v>0</v>
       </c>
       <c r="AP79" s="15">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="AQ79" s="15">
         <v>0</v>
@@ -11858,8 +11858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB87" sqref="AB87"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:AQ83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -12022,10 +12022,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="15">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" s="15">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J2" s="15">
         <v>0</v>
@@ -12155,10 +12155,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
         <v>55</v>
-      </c>
-      <c r="J3" s="15">
-        <v>0</v>
       </c>
       <c r="K3" s="15">
         <v>0</v>
@@ -12276,7 +12276,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="15">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="G4" s="15">
         <v>0</v>
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="15">
-        <v>24.5</v>
+        <v>35</v>
       </c>
       <c r="J4" s="15">
         <v>0</v>
@@ -12406,16 +12406,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="15">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
       </c>
       <c r="H5" s="15">
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c r="I5" s="15">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="J5" s="15">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="15">
-        <v>20.399999999999999</v>
+        <v>68</v>
       </c>
       <c r="G6" s="15">
         <v>0</v>
@@ -12545,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="15">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="J6" s="15">
         <v>0</v>
@@ -12790,7 +12790,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="15">
         <v>0</v>
@@ -12811,10 +12811,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L8" s="15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M8" s="15">
         <v>0</v>
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="15">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="M10" s="15">
         <v>0</v>
@@ -13180,7 +13180,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="15">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="E11" s="15">
         <v>0</v>
@@ -13204,7 +13204,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="15">
-        <v>45</v>
+        <v>13.5</v>
       </c>
       <c r="M11" s="15">
         <v>0</v>
@@ -13310,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="15">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="E12" s="15">
         <v>0</v>
@@ -13331,7 +13331,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="15">
-        <v>24.5</v>
+        <v>35</v>
       </c>
       <c r="L12" s="15">
         <v>0</v>
@@ -13573,7 +13573,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="15">
-        <v>0</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="F14" s="15">
         <v>0</v>
@@ -13591,10 +13591,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="15">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="L14" s="15">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="M14" s="15">
         <v>0</v>
@@ -13721,10 +13721,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L15" s="15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M15" s="15">
         <v>0</v>
@@ -13830,7 +13830,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="15">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="E16" s="15">
         <v>0</v>
@@ -13851,10 +13851,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="15">
-        <v>19.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="L16" s="15">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="M16" s="15">
         <v>0</v>
@@ -13981,10 +13981,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
         <v>25</v>
-      </c>
-      <c r="L17" s="15">
-        <v>0</v>
       </c>
       <c r="M17" s="15">
         <v>0</v>
@@ -14090,7 +14090,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="15">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="E18" s="15">
         <v>0</v>
@@ -14111,10 +14111,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="15">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="L18" s="15">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="M18" s="15">
         <v>0</v>
@@ -14371,10 +14371,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="15">
-        <v>30.8</v>
+        <v>13.2</v>
       </c>
       <c r="L20" s="15">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="M20" s="15">
         <v>0</v>
@@ -14480,7 +14480,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E21" s="15">
         <v>0</v>
@@ -14504,7 +14504,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="15">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M21" s="15">
         <v>0</v>
@@ -14613,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="15">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F22" s="15">
         <v>0</v>
@@ -14643,7 +14643,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="15">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="P22" s="15">
         <v>0</v>
@@ -14743,37 +14743,37 @@
         <v>0</v>
       </c>
       <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
         <v>3.9</v>
       </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="15">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15">
-        <v>0</v>
-      </c>
-      <c r="J23" s="15">
-        <v>0</v>
-      </c>
-      <c r="K23" s="15">
-        <v>0</v>
-      </c>
-      <c r="L23" s="15">
-        <v>0</v>
-      </c>
-      <c r="M23" s="15">
-        <v>0</v>
-      </c>
       <c r="N23" s="15">
         <v>0</v>
       </c>
       <c r="O23" s="15">
-        <v>9.1</v>
+        <v>3.9</v>
       </c>
       <c r="P23" s="15">
         <v>0</v>
@@ -14873,7 +14873,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="15">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="F24" s="15">
         <v>0</v>
@@ -14903,7 +14903,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="15">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="P24" s="15">
         <v>0</v>
@@ -15003,7 +15003,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="15">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="F25" s="15">
         <v>0</v>
@@ -15033,7 +15033,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="15">
-        <v>12.6</v>
+        <v>18</v>
       </c>
       <c r="P25" s="15">
         <v>0</v>
@@ -15157,13 +15157,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="15">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N26" s="15">
         <v>0</v>
       </c>
       <c r="O26" s="15">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="P26" s="15">
         <v>0</v>
@@ -15435,7 +15435,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T28" s="15">
         <v>0</v>
@@ -15450,7 +15450,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="15">
         <v>0</v>
@@ -15565,7 +15565,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T29" s="15">
         <v>0</v>
@@ -15580,7 +15580,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y29" s="15">
         <v>0</v>
@@ -15695,7 +15695,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="15">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="T30" s="15">
         <v>0</v>
@@ -15710,7 +15710,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="15">
-        <v>9.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="15">
         <v>0</v>
@@ -15728,7 +15728,7 @@
         <v>0</v>
       </c>
       <c r="AD30" s="15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE30" s="15">
         <v>0</v>
@@ -15837,10 +15837,10 @@
         <v>0</v>
       </c>
       <c r="W31" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X31" s="15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="15">
         <v>0</v>
@@ -15955,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T32" s="15">
         <v>0</v>
@@ -15970,7 +15970,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y32" s="15">
         <v>0</v>
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="15">
-        <v>6.6</v>
+        <v>22</v>
       </c>
       <c r="T34" s="15">
         <v>0</v>
@@ -16230,7 +16230,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="15">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="15">
         <v>0</v>
@@ -16345,7 +16345,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T35" s="15">
         <v>0</v>
@@ -16360,7 +16360,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="15">
         <v>0</v>
@@ -16762,7 +16762,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC38" s="15">
         <v>0</v>
@@ -16771,10 +16771,10 @@
         <v>0</v>
       </c>
       <c r="AE38" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="15">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="AG38" s="15">
         <v>0</v>
@@ -16865,7 +16865,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="T39" s="15">
         <v>0</v>
@@ -16901,7 +16901,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AF39" s="15">
         <v>0</v>
@@ -17152,16 +17152,16 @@
         <v>0</v>
       </c>
       <c r="AB41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="15">
         <v>0.6</v>
-      </c>
-      <c r="AC41" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="15">
-        <v>0</v>
       </c>
       <c r="AF41" s="15">
         <v>0</v>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="T42" s="15">
         <v>0</v>
@@ -17291,7 +17291,7 @@
         <v>0</v>
       </c>
       <c r="AE42" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AF42" s="15">
         <v>0</v>
@@ -17421,7 +17421,7 @@
         <v>0</v>
       </c>
       <c r="AE43" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="15">
         <v>0</v>
@@ -17515,7 +17515,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="T44" s="15">
         <v>0</v>
@@ -17542,7 +17542,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="15">
         <v>0</v>
@@ -17551,7 +17551,7 @@
         <v>0</v>
       </c>
       <c r="AE44" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AF44" s="15">
         <v>0</v>
@@ -17651,7 +17651,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="15">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="V45" s="15">
         <v>0</v>
@@ -17672,7 +17672,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC45" s="15">
         <v>0</v>
@@ -17681,7 +17681,7 @@
         <v>0</v>
       </c>
       <c r="AE45" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="15">
         <v>0</v>
@@ -17802,7 +17802,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC46" s="15">
         <v>0</v>
@@ -17811,7 +17811,7 @@
         <v>0</v>
       </c>
       <c r="AE46" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="15">
         <v>0</v>
@@ -17905,43 +17905,43 @@
         <v>0</v>
       </c>
       <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+      <c r="X47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T47" s="15">
-        <v>0</v>
-      </c>
-      <c r="U47" s="15">
-        <v>0</v>
-      </c>
-      <c r="V47" s="15">
-        <v>0</v>
-      </c>
-      <c r="W47" s="15">
-        <v>0</v>
-      </c>
-      <c r="X47" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="15">
-        <v>0</v>
       </c>
       <c r="AF47" s="15">
         <v>0</v>
@@ -18035,7 +18035,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="T48" s="15">
         <v>0</v>
@@ -18062,7 +18062,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC48" s="15">
         <v>0</v>
@@ -18582,7 +18582,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC52" s="15">
         <v>0</v>
@@ -18600,7 +18600,7 @@
         <v>0</v>
       </c>
       <c r="AH52" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AI52" s="15">
         <v>0</v>
@@ -18842,7 +18842,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC54" s="15">
         <v>0</v>
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
       <c r="AH54" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="15">
         <v>0</v>
@@ -19131,13 +19131,13 @@
         <v>0</v>
       </c>
       <c r="AK56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="15">
         <v>15</v>
-      </c>
-      <c r="AL56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM56" s="15">
-        <v>0</v>
       </c>
       <c r="AN56" s="15">
         <v>0</v>
@@ -19260,10 +19260,10 @@
         <v>0</v>
       </c>
       <c r="AK57" s="15">
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="AL57" s="15">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AM57" s="15">
         <v>0</v>
@@ -19389,10 +19389,10 @@
         <v>0</v>
       </c>
       <c r="AK58" s="15">
-        <v>14</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AL58" s="15">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AM58" s="15">
         <v>0</v>
@@ -19518,13 +19518,13 @@
         <v>0</v>
       </c>
       <c r="AK59" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="15">
         <v>6</v>
-      </c>
-      <c r="AL59" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM59" s="15">
-        <v>0</v>
       </c>
       <c r="AN59" s="15">
         <v>0</v>
@@ -19647,13 +19647,13 @@
         <v>0</v>
       </c>
       <c r="AK60" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="15">
         <v>10</v>
-      </c>
-      <c r="AL60" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM60" s="15">
-        <v>0</v>
       </c>
       <c r="AN60" s="15">
         <v>0</v>
@@ -19776,10 +19776,10 @@
         <v>0</v>
       </c>
       <c r="AK61" s="15">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="AL61" s="15">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AM61" s="15">
         <v>0</v>
@@ -19905,13 +19905,13 @@
         <v>0</v>
       </c>
       <c r="AK62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="15">
         <v>22</v>
-      </c>
-      <c r="AL62" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM62" s="15">
-        <v>0</v>
       </c>
       <c r="AN62" s="15">
         <v>0</v>
@@ -20034,13 +20034,13 @@
         <v>0</v>
       </c>
       <c r="AK63" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AM63" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN63" s="15">
         <v>0</v>
@@ -20430,13 +20430,13 @@
         <v>0</v>
       </c>
       <c r="AN66" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO66" s="15">
         <v>0</v>
       </c>
       <c r="AP66" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ66" s="15">
         <v>0</v>
@@ -20694,7 +20694,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ68" s="15">
         <v>0</v>
@@ -20823,7 +20823,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ69" s="15">
         <v>0</v>
@@ -21075,13 +21075,13 @@
         <v>0</v>
       </c>
       <c r="AN71" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO71" s="15">
         <v>0</v>
       </c>
       <c r="AP71" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ71" s="15">
         <v>0</v>
@@ -21204,13 +21204,13 @@
         <v>0</v>
       </c>
       <c r="AN72" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO72" s="15">
         <v>0</v>
       </c>
       <c r="AP72" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ72" s="15">
         <v>0</v>
@@ -21462,13 +21462,13 @@
         <v>0</v>
       </c>
       <c r="AN74" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO74" s="15">
         <v>0</v>
       </c>
       <c r="AP74" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ74" s="15">
         <v>0</v>
@@ -21597,7 +21597,7 @@
         <v>0</v>
       </c>
       <c r="AP75" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ75" s="15">
         <v>0</v>
@@ -21720,13 +21720,13 @@
         <v>0</v>
       </c>
       <c r="AN76" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO76" s="15">
         <v>0</v>
       </c>
       <c r="AP76" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ76" s="15">
         <v>0</v>
@@ -21855,7 +21855,7 @@
         <v>0</v>
       </c>
       <c r="AP77" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ77" s="15">
         <v>0</v>
@@ -21978,13 +21978,13 @@
         <v>0</v>
       </c>
       <c r="AN78" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO78" s="15">
         <v>0</v>
       </c>
       <c r="AP78" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ78" s="15">
         <v>0</v>
@@ -22113,7 +22113,7 @@
         <v>0</v>
       </c>
       <c r="AP79" s="15">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="AQ79" s="15">
         <v>0</v>
@@ -22920,16 +22920,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="15">
-        <v>24</v>
+        <v>45.4</v>
       </c>
       <c r="G2" s="15">
         <v>0</v>
       </c>
       <c r="H2" s="15">
-        <v>0</v>
+        <v>34.6</v>
       </c>
       <c r="I2" s="15">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J2" s="15">
         <v>0</v>
@@ -23050,19 +23050,19 @@
         <v>0</v>
       </c>
       <c r="F3" s="15">
+        <v>38.5</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
         <v>16.5</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
-        <v>38.5</v>
-      </c>
-      <c r="J3" s="15">
-        <v>0</v>
       </c>
       <c r="K3" s="15">
         <v>0</v>
@@ -23180,7 +23180,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="15">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="G4" s="15">
         <v>0</v>
@@ -23189,7 +23189,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="15">
-        <v>35</v>
+        <v>24.5</v>
       </c>
       <c r="J4" s="15">
         <v>0</v>
@@ -23310,7 +23310,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="15">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
@@ -23322,7 +23322,7 @@
         <v>50.4</v>
       </c>
       <c r="J5" s="15">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="K5" s="15">
         <v>0</v>
@@ -23446,10 +23446,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="15">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I6" s="15">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="J6" s="15">
         <v>0</v>
@@ -23576,10 +23576,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="15">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I7" s="15">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J7" s="15">
         <v>0</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="15">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E8" s="15">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L8" s="15">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="M8" s="15">
         <v>0</v>
@@ -23845,10 +23845,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="15">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="L9" s="15">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="M9" s="15">
         <v>0</v>
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L10" s="15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M10" s="15">
         <v>0</v>
@@ -24084,7 +24084,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="15">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="15">
         <v>0</v>
@@ -24105,7 +24105,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="15">
-        <v>31.5</v>
+        <v>45</v>
       </c>
       <c r="L11" s="15">
         <v>0</v>
@@ -24235,10 +24235,10 @@
         <v>0</v>
       </c>
       <c r="K12" s="15">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L12" s="15">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M12" s="15">
         <v>0</v>
@@ -24365,10 +24365,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L13" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M13" s="15">
         <v>0</v>
@@ -24474,7 +24474,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="15">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="E14" s="15">
         <v>0</v>
@@ -24495,10 +24495,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="15">
-        <v>32.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="L14" s="15">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="M14" s="15">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E15" s="15">
         <v>0</v>
@@ -24628,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="15">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M15" s="15">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="15">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="E16" s="15">
         <v>0</v>
@@ -24755,10 +24755,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="15">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L16" s="15">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="M16" s="15">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="15">
-        <v>17.5</v>
+        <v>7.5</v>
       </c>
       <c r="L17" s="15">
         <v>0</v>
@@ -24994,7 +24994,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="15">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="E18" s="15">
         <v>0</v>
@@ -25015,10 +25015,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="15">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="L18" s="15">
-        <v>60.2</v>
+        <v>0</v>
       </c>
       <c r="M18" s="15">
         <v>0</v>
@@ -25124,7 +25124,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="15">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="E19" s="15">
         <v>0</v>
@@ -25148,7 +25148,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="15">
-        <v>38.5</v>
+        <v>55</v>
       </c>
       <c r="M19" s="15">
         <v>0</v>
@@ -25254,7 +25254,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="15">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="E20" s="15">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="15">
-        <v>44</v>
+        <v>13.2</v>
       </c>
       <c r="M20" s="15">
         <v>0</v>
@@ -25384,7 +25384,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E21" s="15">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="15">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M21" s="15">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="15">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="F22" s="15">
         <v>0</v>
@@ -25547,7 +25547,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="15">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="P22" s="15">
         <v>0</v>
@@ -25647,7 +25647,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="15">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="F23" s="15">
         <v>0</v>
@@ -25677,7 +25677,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="15">
-        <v>13</v>
+        <v>3.9</v>
       </c>
       <c r="P23" s="15">
         <v>0</v>
@@ -25777,7 +25777,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="15">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F24" s="15">
         <v>0</v>
@@ -25807,7 +25807,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="15">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="P24" s="15">
         <v>0</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="15">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="F25" s="15">
         <v>0</v>
@@ -25937,7 +25937,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="15">
-        <v>18</v>
+        <v>5.4</v>
       </c>
       <c r="P25" s="15">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="15">
-        <v>8.1</v>
+        <v>27</v>
       </c>
       <c r="F26" s="15">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="15">
-        <v>18.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P26" s="15">
         <v>0</v>
@@ -26167,37 +26167,37 @@
         <v>0</v>
       </c>
       <c r="E27" s="15">
+        <v>14</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <v>0</v>
+      </c>
+      <c r="N27" s="15">
+        <v>0</v>
+      </c>
+      <c r="O27" s="15">
         <v>6</v>
-      </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="15">
-        <v>0</v>
-      </c>
-      <c r="H27" s="15">
-        <v>0</v>
-      </c>
-      <c r="I27" s="15">
-        <v>0</v>
-      </c>
-      <c r="J27" s="15">
-        <v>0</v>
-      </c>
-      <c r="K27" s="15">
-        <v>0</v>
-      </c>
-      <c r="L27" s="15">
-        <v>0</v>
-      </c>
-      <c r="M27" s="15">
-        <v>0</v>
-      </c>
-      <c r="N27" s="15">
-        <v>0</v>
-      </c>
-      <c r="O27" s="15">
-        <v>14</v>
       </c>
       <c r="P27" s="15">
         <v>0</v>
@@ -26339,7 +26339,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="15">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="T28" s="15">
         <v>0</v>
@@ -26354,7 +26354,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="15">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="15">
         <v>0</v>
@@ -26729,7 +26729,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="15">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T31" s="15">
         <v>0</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="15">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Y31" s="15">
         <v>0</v>
@@ -26874,25 +26874,25 @@
         <v>0</v>
       </c>
       <c r="X32" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="15">
         <v>10</v>
-      </c>
-      <c r="Y32" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="15">
-        <v>0</v>
       </c>
       <c r="AE32" s="15">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="15">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="T33" s="15">
         <v>0</v>
@@ -27004,7 +27004,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="15">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="15">
         <v>0</v>
@@ -27022,7 +27022,7 @@
         <v>0</v>
       </c>
       <c r="AD33" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE33" s="15">
         <v>0</v>
@@ -27119,7 +27119,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="15">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="T34" s="15">
         <v>0</v>
@@ -27134,7 +27134,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="15">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="15">
         <v>0</v>
@@ -27249,7 +27249,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="15">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="T35" s="15">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="15">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="V36" s="15">
         <v>0</v>
@@ -27406,7 +27406,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AC36" s="15">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="T37" s="15">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="AE37" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AF37" s="15">
         <v>0</v>
@@ -27645,7 +27645,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V38" s="15">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="15">
         <v>0</v>
@@ -27769,34 +27769,34 @@
         <v>0</v>
       </c>
       <c r="S39" s="15">
+        <v>0</v>
+      </c>
+      <c r="T39" s="15">
+        <v>0</v>
+      </c>
+      <c r="U39" s="15">
+        <v>0</v>
+      </c>
+      <c r="V39" s="15">
+        <v>0</v>
+      </c>
+      <c r="W39" s="15">
+        <v>0</v>
+      </c>
+      <c r="X39" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T39" s="15">
-        <v>0</v>
-      </c>
-      <c r="U39" s="15">
-        <v>0</v>
-      </c>
-      <c r="V39" s="15">
-        <v>0</v>
-      </c>
-      <c r="W39" s="15">
-        <v>0</v>
-      </c>
-      <c r="X39" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="15">
-        <v>0</v>
       </c>
       <c r="AC39" s="15">
         <v>0</v>
@@ -27905,7 +27905,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="V40" s="15">
         <v>0</v>
@@ -27926,7 +27926,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AC40" s="15">
         <v>0</v>
@@ -28029,13 +28029,13 @@
         <v>0</v>
       </c>
       <c r="S41" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="T41" s="15">
         <v>0</v>
       </c>
       <c r="U41" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="V41" s="15">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC41" s="15">
         <v>0</v>
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="V43" s="15">
         <v>0</v>
@@ -28325,7 +28325,7 @@
         <v>0</v>
       </c>
       <c r="AE43" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AF43" s="15">
         <v>0</v>
@@ -28679,7 +28679,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="T46" s="15">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC46" s="15">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="V47" s="15">
         <v>0</v>
@@ -28845,7 +28845,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AF47" s="15">
         <v>0</v>
@@ -29069,7 +29069,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="T49" s="15">
         <v>0</v>
@@ -29096,7 +29096,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AC49" s="15">
         <v>0</v>
@@ -29199,7 +29199,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="T50" s="15">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="AB50" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC50" s="15">
         <v>0</v>
@@ -29465,7 +29465,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="15">
-        <v>0.18</v>
+        <v>0.6</v>
       </c>
       <c r="V52" s="15">
         <v>0</v>
@@ -29504,7 +29504,7 @@
         <v>0</v>
       </c>
       <c r="AH52" s="15">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AI52" s="15">
         <v>0</v>
@@ -29595,7 +29595,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="15">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="V53" s="15">
         <v>0</v>
@@ -29634,7 +29634,7 @@
         <v>0</v>
       </c>
       <c r="AH53" s="15">
-        <v>0.42</v>
+        <v>0.6</v>
       </c>
       <c r="AI53" s="15">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="AH54" s="15">
-        <v>0.42</v>
+        <v>0.18</v>
       </c>
       <c r="AI54" s="15">
         <v>0</v>
@@ -29849,35 +29849,35 @@
         <v>0</v>
       </c>
       <c r="S55" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="T55" s="15">
         <v>0</v>
       </c>
       <c r="U55" s="15">
+        <v>0</v>
+      </c>
+      <c r="V55" s="15">
+        <v>0</v>
+      </c>
+      <c r="W55" s="15">
+        <v>0</v>
+      </c>
+      <c r="X55" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="15">
         <v>0.18</v>
       </c>
-      <c r="V55" s="15">
-        <v>0</v>
-      </c>
-      <c r="W55" s="15">
-        <v>0</v>
-      </c>
-      <c r="X55" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="15">
-        <v>0</v>
-      </c>
       <c r="AC55" s="15">
         <v>0</v>
       </c>
@@ -29894,7 +29894,7 @@
         <v>0</v>
       </c>
       <c r="AH55" s="15">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AI55" s="15">
         <v>0</v>
@@ -30035,13 +30035,13 @@
         <v>0</v>
       </c>
       <c r="AK56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="15">
         <v>15</v>
-      </c>
-      <c r="AL56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM56" s="15">
-        <v>0</v>
       </c>
       <c r="AN56" s="15">
         <v>0</v>
@@ -30164,10 +30164,10 @@
         <v>0</v>
       </c>
       <c r="AK57" s="15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL57" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM57" s="15">
         <v>0</v>
@@ -30293,10 +30293,10 @@
         <v>0</v>
       </c>
       <c r="AK58" s="15">
-        <v>14</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AL58" s="15">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AM58" s="15">
         <v>0</v>
@@ -30551,10 +30551,10 @@
         <v>0</v>
       </c>
       <c r="AK60" s="15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL60" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM60" s="15">
         <v>0</v>
@@ -30680,13 +30680,13 @@
         <v>0</v>
       </c>
       <c r="AK61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="15">
         <v>12</v>
-      </c>
-      <c r="AL61" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM61" s="15">
-        <v>0</v>
       </c>
       <c r="AN61" s="15">
         <v>0</v>
@@ -30809,13 +30809,13 @@
         <v>0</v>
       </c>
       <c r="AK62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="15">
         <v>22</v>
-      </c>
-      <c r="AL62" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM62" s="15">
-        <v>0</v>
       </c>
       <c r="AN62" s="15">
         <v>0</v>
@@ -30938,13 +30938,13 @@
         <v>0</v>
       </c>
       <c r="AK63" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AM63" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN63" s="15">
         <v>0</v>
@@ -31463,13 +31463,13 @@
         <v>0</v>
       </c>
       <c r="AN67" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO67" s="15">
         <v>0</v>
       </c>
       <c r="AP67" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ67" s="15">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ68" s="15">
         <v>0</v>
@@ -31721,13 +31721,13 @@
         <v>0</v>
       </c>
       <c r="AN69" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO69" s="15">
         <v>0</v>
       </c>
       <c r="AP69" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ69" s="15">
         <v>0</v>
@@ -31850,13 +31850,13 @@
         <v>0</v>
       </c>
       <c r="AN70" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO70" s="15">
         <v>0</v>
       </c>
       <c r="AP70" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ70" s="15">
         <v>0</v>
@@ -32108,13 +32108,13 @@
         <v>0</v>
       </c>
       <c r="AN72" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO72" s="15">
         <v>0</v>
       </c>
       <c r="AP72" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ72" s="15">
         <v>0</v>
@@ -32372,7 +32372,7 @@
         <v>0</v>
       </c>
       <c r="AP74" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ74" s="15">
         <v>0</v>
@@ -32495,13 +32495,13 @@
         <v>0</v>
       </c>
       <c r="AN75" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO75" s="15">
         <v>0</v>
       </c>
       <c r="AP75" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ75" s="15">
         <v>0</v>
@@ -32624,13 +32624,13 @@
         <v>0</v>
       </c>
       <c r="AN76" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO76" s="15">
         <v>0</v>
       </c>
       <c r="AP76" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ76" s="15">
         <v>0</v>
@@ -32759,7 +32759,7 @@
         <v>0</v>
       </c>
       <c r="AP77" s="15">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="AQ77" s="15">
         <v>0</v>
@@ -32888,7 +32888,7 @@
         <v>0</v>
       </c>
       <c r="AP78" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ78" s="15">
         <v>0</v>
@@ -33017,7 +33017,7 @@
         <v>0</v>
       </c>
       <c r="AP79" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ79" s="15">
         <v>0</v>
@@ -33666,8 +33666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AS89"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:AQ83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -33830,10 +33830,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="15">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" s="15">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J2" s="15">
         <v>0</v>
@@ -33963,10 +33963,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="15">
-        <v>55</v>
+        <v>38.5</v>
       </c>
       <c r="J3" s="15">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="K3" s="15">
         <v>0</v>
@@ -34090,10 +34090,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="15">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I4" s="15">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J4" s="15">
         <v>0</v>
@@ -34220,10 +34220,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="15">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I5" s="15">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="J5" s="15">
         <v>0</v>
@@ -34353,10 +34353,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
         <v>68</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
       </c>
       <c r="K6" s="15">
         <v>0</v>
@@ -34483,10 +34483,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="15">
-        <v>55</v>
+        <v>38.5</v>
       </c>
       <c r="J7" s="15">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="K7" s="15">
         <v>0</v>
@@ -34619,10 +34619,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L8" s="15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M8" s="15">
         <v>0</v>
@@ -34749,10 +34749,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
         <v>25</v>
-      </c>
-      <c r="L9" s="15">
-        <v>0</v>
       </c>
       <c r="M9" s="15">
         <v>0</v>
@@ -34879,10 +34879,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L10" s="15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M10" s="15">
         <v>0</v>
@@ -34988,7 +34988,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="15">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="E11" s="15">
         <v>0</v>
@@ -35009,10 +35009,10 @@
         <v>0</v>
       </c>
       <c r="K11" s="15">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="L11" s="15">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M11" s="15">
         <v>0</v>
@@ -35118,7 +35118,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="15">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E12" s="15">
         <v>0</v>
@@ -35139,7 +35139,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="15">
-        <v>35</v>
+        <v>10.5</v>
       </c>
       <c r="L12" s="15">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
         <v>20</v>
-      </c>
-      <c r="L13" s="15">
-        <v>0</v>
       </c>
       <c r="M13" s="15">
         <v>0</v>
@@ -35378,7 +35378,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="15">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E14" s="15">
         <v>0</v>
@@ -35402,7 +35402,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="15">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="M14" s="15">
         <v>0</v>
@@ -35508,7 +35508,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E15" s="15">
         <v>0</v>
@@ -35529,10 +35529,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="15">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L15" s="15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M15" s="15">
         <v>0</v>
@@ -35789,10 +35789,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
         <v>25</v>
-      </c>
-      <c r="L17" s="15">
-        <v>0</v>
       </c>
       <c r="M17" s="15">
         <v>0</v>
@@ -35919,10 +35919,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="15">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="L18" s="15">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="M18" s="15">
         <v>0</v>
@@ -36028,7 +36028,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="15">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E19" s="15">
         <v>0</v>
@@ -36052,7 +36052,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="15">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M19" s="15">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N25" s="15">
         <v>0</v>
       </c>
       <c r="O25" s="15">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P25" s="15">
         <v>0</v>
@@ -37095,13 +37095,13 @@
         <v>0</v>
       </c>
       <c r="M27" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N27" s="15">
         <v>0</v>
       </c>
       <c r="O27" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P27" s="15">
         <v>0</v>
@@ -37243,7 +37243,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="15">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T28" s="15">
         <v>0</v>
@@ -37255,10 +37255,10 @@
         <v>0</v>
       </c>
       <c r="W28" s="15">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="X28" s="15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="15">
         <v>0</v>
@@ -37373,7 +37373,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T29" s="15">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="15">
         <v>0</v>
@@ -37503,7 +37503,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T30" s="15">
         <v>0</v>
@@ -37518,7 +37518,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="15">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="15">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T31" s="15">
         <v>0</v>
@@ -37648,7 +37648,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="15">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="Y31" s="15">
         <v>0</v>
@@ -37763,7 +37763,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T32" s="15">
         <v>0</v>
@@ -37778,7 +37778,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Y32" s="15">
         <v>0</v>
@@ -37893,7 +37893,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="15">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T33" s="15">
         <v>0</v>
@@ -37908,7 +37908,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="15">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Y33" s="15">
         <v>0</v>
@@ -38038,25 +38038,25 @@
         <v>0</v>
       </c>
       <c r="X34" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="15">
         <v>22</v>
-      </c>
-      <c r="Y34" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="15">
-        <v>0</v>
       </c>
       <c r="AE34" s="15">
         <v>0</v>
@@ -38283,43 +38283,43 @@
         <v>0</v>
       </c>
       <c r="S36" s="15">
+        <v>0</v>
+      </c>
+      <c r="T36" s="15">
+        <v>0</v>
+      </c>
+      <c r="U36" s="15">
+        <v>0</v>
+      </c>
+      <c r="V36" s="15">
+        <v>0</v>
+      </c>
+      <c r="W36" s="15">
+        <v>0</v>
+      </c>
+      <c r="X36" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T36" s="15">
-        <v>0</v>
-      </c>
-      <c r="U36" s="15">
-        <v>0</v>
-      </c>
-      <c r="V36" s="15">
-        <v>0</v>
-      </c>
-      <c r="W36" s="15">
-        <v>0</v>
-      </c>
-      <c r="X36" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="15">
-        <v>0</v>
       </c>
       <c r="AF36" s="15">
         <v>0</v>
@@ -38413,34 +38413,34 @@
         <v>0</v>
       </c>
       <c r="S37" s="15">
+        <v>0</v>
+      </c>
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>0</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+      <c r="X37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T37" s="15">
-        <v>0</v>
-      </c>
-      <c r="U37" s="15">
-        <v>0</v>
-      </c>
-      <c r="V37" s="15">
-        <v>0</v>
-      </c>
-      <c r="W37" s="15">
-        <v>0</v>
-      </c>
-      <c r="X37" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="15">
-        <v>0</v>
       </c>
       <c r="AC37" s="15">
         <v>0</v>
@@ -38543,46 +38543,46 @@
         <v>0</v>
       </c>
       <c r="S38" s="15">
+        <v>0</v>
+      </c>
+      <c r="T38" s="15">
+        <v>0</v>
+      </c>
+      <c r="U38" s="15">
+        <v>0</v>
+      </c>
+      <c r="V38" s="15">
+        <v>0</v>
+      </c>
+      <c r="W38" s="15">
+        <v>0</v>
+      </c>
+      <c r="X38" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T38" s="15">
-        <v>0</v>
-      </c>
-      <c r="U38" s="15">
-        <v>0</v>
-      </c>
-      <c r="V38" s="15">
-        <v>0</v>
-      </c>
-      <c r="W38" s="15">
-        <v>0</v>
-      </c>
-      <c r="X38" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="15">
-        <v>0</v>
       </c>
       <c r="AG38" s="15">
         <v>0</v>
@@ -38803,34 +38803,34 @@
         <v>0</v>
       </c>
       <c r="S40" s="15">
+        <v>0</v>
+      </c>
+      <c r="T40" s="15">
+        <v>0</v>
+      </c>
+      <c r="U40" s="15">
+        <v>0</v>
+      </c>
+      <c r="V40" s="15">
+        <v>0</v>
+      </c>
+      <c r="W40" s="15">
+        <v>0</v>
+      </c>
+      <c r="X40" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T40" s="15">
-        <v>0</v>
-      </c>
-      <c r="U40" s="15">
-        <v>0</v>
-      </c>
-      <c r="V40" s="15">
-        <v>0</v>
-      </c>
-      <c r="W40" s="15">
-        <v>0</v>
-      </c>
-      <c r="X40" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="15">
-        <v>0</v>
       </c>
       <c r="AC40" s="15">
         <v>0</v>
@@ -39090,7 +39090,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC42" s="15">
         <v>0</v>
@@ -39099,7 +39099,7 @@
         <v>0</v>
       </c>
       <c r="AE42" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="15">
         <v>0</v>
@@ -39193,43 +39193,43 @@
         <v>0</v>
       </c>
       <c r="S43" s="15">
+        <v>0</v>
+      </c>
+      <c r="T43" s="15">
+        <v>0</v>
+      </c>
+      <c r="U43" s="15">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15">
+        <v>0</v>
+      </c>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+      <c r="X43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T43" s="15">
-        <v>0</v>
-      </c>
-      <c r="U43" s="15">
-        <v>0</v>
-      </c>
-      <c r="V43" s="15">
-        <v>0</v>
-      </c>
-      <c r="W43" s="15">
-        <v>0</v>
-      </c>
-      <c r="X43" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="15">
-        <v>0</v>
       </c>
       <c r="AF43" s="15">
         <v>0</v>
@@ -39323,43 +39323,43 @@
         <v>0</v>
       </c>
       <c r="S44" s="15">
+        <v>0</v>
+      </c>
+      <c r="T44" s="15">
+        <v>0</v>
+      </c>
+      <c r="U44" s="15">
+        <v>0</v>
+      </c>
+      <c r="V44" s="15">
+        <v>0</v>
+      </c>
+      <c r="W44" s="15">
+        <v>0</v>
+      </c>
+      <c r="X44" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T44" s="15">
-        <v>0</v>
-      </c>
-      <c r="U44" s="15">
-        <v>0</v>
-      </c>
-      <c r="V44" s="15">
-        <v>0</v>
-      </c>
-      <c r="W44" s="15">
-        <v>0</v>
-      </c>
-      <c r="X44" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="15">
-        <v>0</v>
       </c>
       <c r="AF44" s="15">
         <v>0</v>
@@ -39453,43 +39453,43 @@
         <v>0</v>
       </c>
       <c r="S45" s="15">
+        <v>0</v>
+      </c>
+      <c r="T45" s="15">
+        <v>0</v>
+      </c>
+      <c r="U45" s="15">
+        <v>0</v>
+      </c>
+      <c r="V45" s="15">
+        <v>0</v>
+      </c>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+      <c r="X45" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T45" s="15">
-        <v>0</v>
-      </c>
-      <c r="U45" s="15">
-        <v>0</v>
-      </c>
-      <c r="V45" s="15">
-        <v>0</v>
-      </c>
-      <c r="W45" s="15">
-        <v>0</v>
-      </c>
-      <c r="X45" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="15">
-        <v>0</v>
       </c>
       <c r="AF45" s="15">
         <v>0</v>
@@ -39610,7 +39610,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC46" s="15">
         <v>0</v>
@@ -39619,7 +39619,7 @@
         <v>0</v>
       </c>
       <c r="AE46" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="15">
         <v>0</v>
@@ -39749,10 +39749,10 @@
         <v>0</v>
       </c>
       <c r="AE47" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="15">
         <v>0.6</v>
-      </c>
-      <c r="AF47" s="15">
-        <v>0</v>
       </c>
       <c r="AG47" s="15">
         <v>0</v>
@@ -39973,34 +39973,34 @@
         <v>0</v>
       </c>
       <c r="S49" s="15">
+        <v>0</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>0</v>
+      </c>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+      <c r="X49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T49" s="15">
-        <v>0</v>
-      </c>
-      <c r="U49" s="15">
-        <v>0</v>
-      </c>
-      <c r="V49" s="15">
-        <v>0</v>
-      </c>
-      <c r="W49" s="15">
-        <v>0</v>
-      </c>
-      <c r="X49" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="15">
-        <v>0</v>
       </c>
       <c r="AC49" s="15">
         <v>0</v>
@@ -40260,7 +40260,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC51" s="15">
         <v>0</v>
@@ -40269,7 +40269,7 @@
         <v>0</v>
       </c>
       <c r="AE51" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="15">
         <v>0</v>
@@ -40499,7 +40499,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="15">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="V53" s="15">
         <v>0</v>
@@ -40538,7 +40538,7 @@
         <v>0</v>
       </c>
       <c r="AH53" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AI53" s="15">
         <v>0</v>
@@ -40650,7 +40650,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC54" s="15">
         <v>0</v>
@@ -40668,7 +40668,7 @@
         <v>0</v>
       </c>
       <c r="AH54" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="15">
         <v>0</v>
@@ -40780,7 +40780,7 @@
         <v>0</v>
       </c>
       <c r="AB55" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC55" s="15">
         <v>0</v>
@@ -40798,7 +40798,7 @@
         <v>0</v>
       </c>
       <c r="AH55" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AI55" s="15">
         <v>0</v>
@@ -40939,13 +40939,13 @@
         <v>0</v>
       </c>
       <c r="AK56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="15">
         <v>15</v>
-      </c>
-      <c r="AL56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM56" s="15">
-        <v>0</v>
       </c>
       <c r="AN56" s="15">
         <v>0</v>
@@ -41068,10 +41068,10 @@
         <v>0</v>
       </c>
       <c r="AK57" s="15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL57" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM57" s="15">
         <v>0</v>
@@ -41197,10 +41197,10 @@
         <v>0</v>
       </c>
       <c r="AK58" s="15">
-        <v>14</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AL58" s="15">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AM58" s="15">
         <v>0</v>
@@ -41455,10 +41455,10 @@
         <v>0</v>
       </c>
       <c r="AK60" s="15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL60" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM60" s="15">
         <v>0</v>
@@ -41584,13 +41584,13 @@
         <v>0</v>
       </c>
       <c r="AK61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="15">
         <v>12</v>
-      </c>
-      <c r="AL61" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM61" s="15">
-        <v>0</v>
       </c>
       <c r="AN61" s="15">
         <v>0</v>
@@ -41713,13 +41713,13 @@
         <v>0</v>
       </c>
       <c r="AK62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="15">
         <v>22</v>
-      </c>
-      <c r="AL62" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM62" s="15">
-        <v>0</v>
       </c>
       <c r="AN62" s="15">
         <v>0</v>
@@ -41842,13 +41842,13 @@
         <v>0</v>
       </c>
       <c r="AK63" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AM63" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN63" s="15">
         <v>0</v>
@@ -42367,13 +42367,13 @@
         <v>0</v>
       </c>
       <c r="AN67" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO67" s="15">
         <v>0</v>
       </c>
       <c r="AP67" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ67" s="15">
         <v>0</v>
@@ -42502,7 +42502,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ68" s="15">
         <v>0</v>
@@ -42631,7 +42631,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ69" s="15">
         <v>0</v>
@@ -43141,13 +43141,13 @@
         <v>0</v>
       </c>
       <c r="AN73" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO73" s="15">
         <v>0</v>
       </c>
       <c r="AP73" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ73" s="15">
         <v>0</v>
@@ -43276,7 +43276,7 @@
         <v>0</v>
       </c>
       <c r="AP74" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ74" s="15">
         <v>0</v>
@@ -43405,7 +43405,7 @@
         <v>0</v>
       </c>
       <c r="AP75" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ75" s="15">
         <v>0</v>
@@ -43534,7 +43534,7 @@
         <v>0</v>
       </c>
       <c r="AP76" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ76" s="15">
         <v>0</v>
@@ -43657,13 +43657,13 @@
         <v>0</v>
       </c>
       <c r="AN77" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO77" s="15">
         <v>0</v>
       </c>
       <c r="AP77" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ77" s="15">
         <v>0</v>
@@ -43792,7 +43792,7 @@
         <v>0</v>
       </c>
       <c r="AP78" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ78" s="15">
         <v>0</v>
@@ -43915,13 +43915,13 @@
         <v>0</v>
       </c>
       <c r="AN79" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO79" s="15">
         <v>0</v>
       </c>
       <c r="AP79" s="15">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="AQ79" s="15">
         <v>0</v>
@@ -44570,8 +44570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AS89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:AQ83"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O77" sqref="O77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -44864,10 +44864,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="15">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I3" s="15">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J3" s="15">
         <v>0</v>
@@ -44988,7 +44988,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="15">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="G4" s="15">
         <v>0</v>
@@ -44997,7 +44997,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="15">
-        <v>24.5</v>
+        <v>35</v>
       </c>
       <c r="J4" s="15">
         <v>0</v>
@@ -45118,7 +45118,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="15">
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
@@ -45127,10 +45127,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="15">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="J5" s="15">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="K5" s="15">
         <v>0</v>
@@ -45248,16 +45248,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="15">
-        <v>20.399999999999999</v>
+        <v>27.5</v>
       </c>
       <c r="G6" s="15">
         <v>0</v>
       </c>
       <c r="H6" s="15">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="I6" s="15">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="J6" s="15">
         <v>0</v>
@@ -45384,10 +45384,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="15">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="I7" s="15">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="J7" s="15">
         <v>0</v>
@@ -45505,7 +45505,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="15">
-        <v>0</v>
+        <v>39.052632000000003</v>
       </c>
       <c r="F8" s="15">
         <v>0</v>
@@ -45523,10 +45523,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L8" s="15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M8" s="15">
         <v>0</v>
@@ -45653,10 +45653,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
         <v>25</v>
-      </c>
-      <c r="L9" s="15">
-        <v>0</v>
       </c>
       <c r="M9" s="15">
         <v>0</v>
@@ -45786,7 +45786,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="15">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="M10" s="15">
         <v>0</v>
@@ -45913,10 +45913,10 @@
         <v>0</v>
       </c>
       <c r="K11" s="15">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L11" s="15">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M11" s="15">
         <v>0</v>
@@ -46022,7 +46022,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="15">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="E12" s="15">
         <v>0</v>
@@ -46043,10 +46043,10 @@
         <v>0</v>
       </c>
       <c r="K12" s="15">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="L12" s="15">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M12" s="15">
         <v>0</v>
@@ -46152,7 +46152,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E13" s="15">
         <v>0</v>
@@ -46173,7 +46173,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L13" s="15">
         <v>0</v>
@@ -46542,7 +46542,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="15">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="E16" s="15">
         <v>0</v>
@@ -46563,10 +46563,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="15">
-        <v>19.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="L16" s="15">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="M16" s="15">
         <v>0</v>
@@ -46672,7 +46672,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="15">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E17" s="15">
         <v>0</v>
@@ -46693,10 +46693,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L17" s="15">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="M17" s="15">
         <v>0</v>
@@ -46823,10 +46823,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="15">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="L18" s="15">
-        <v>60.2</v>
+        <v>0</v>
       </c>
       <c r="M18" s="15">
         <v>0</v>
@@ -46953,10 +46953,10 @@
         <v>0</v>
       </c>
       <c r="K19" s="15">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L19" s="15">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M19" s="15">
         <v>0</v>
@@ -47062,7 +47062,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="15">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="E20" s="15">
         <v>0</v>
@@ -47083,7 +47083,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="15">
-        <v>30.8</v>
+        <v>44</v>
       </c>
       <c r="L20" s="15">
         <v>0</v>
@@ -47192,7 +47192,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E21" s="15">
         <v>0</v>
@@ -47213,10 +47213,10 @@
         <v>0</v>
       </c>
       <c r="K21" s="15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L21" s="15">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M21" s="15">
         <v>0</v>
@@ -47325,37 +47325,37 @@
         <v>0</v>
       </c>
       <c r="E22" s="15">
+        <v>10.5</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
         <v>4.5</v>
       </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="15">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15">
-        <v>0</v>
-      </c>
-      <c r="I22" s="15">
-        <v>0</v>
-      </c>
-      <c r="J22" s="15">
-        <v>0</v>
-      </c>
-      <c r="K22" s="15">
-        <v>0</v>
-      </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <v>0</v>
-      </c>
       <c r="N22" s="15">
         <v>0</v>
       </c>
       <c r="O22" s="15">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="P22" s="15">
         <v>0</v>
@@ -47455,37 +47455,37 @@
         <v>0</v>
       </c>
       <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
         <v>3.9</v>
       </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="15">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15">
-        <v>0</v>
-      </c>
-      <c r="J23" s="15">
-        <v>0</v>
-      </c>
-      <c r="K23" s="15">
-        <v>0</v>
-      </c>
-      <c r="L23" s="15">
-        <v>0</v>
-      </c>
-      <c r="M23" s="15">
-        <v>0</v>
-      </c>
       <c r="N23" s="15">
         <v>0</v>
       </c>
       <c r="O23" s="15">
-        <v>9.1</v>
+        <v>3.9</v>
       </c>
       <c r="P23" s="15">
         <v>0</v>
@@ -47585,7 +47585,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="15">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="F24" s="15">
         <v>0</v>
@@ -47615,7 +47615,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="15">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="P24" s="15">
         <v>0</v>
@@ -47715,7 +47715,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="15">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="F25" s="15">
         <v>0</v>
@@ -47745,7 +47745,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="15">
-        <v>12.6</v>
+        <v>18</v>
       </c>
       <c r="P25" s="15">
         <v>0</v>
@@ -47869,13 +47869,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="15">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N26" s="15">
         <v>0</v>
       </c>
       <c r="O26" s="15">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="P26" s="15">
         <v>0</v>
@@ -48147,7 +48147,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T28" s="15">
         <v>0</v>
@@ -48162,7 +48162,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="15">
         <v>0</v>
@@ -48277,7 +48277,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T29" s="15">
         <v>0</v>
@@ -48289,10 +48289,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X29" s="15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="15">
         <v>0</v>
@@ -48407,7 +48407,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="15">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="T30" s="15">
         <v>0</v>
@@ -48422,7 +48422,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="15">
-        <v>9.8000000000000007</v>
+        <v>14</v>
       </c>
       <c r="Y30" s="15">
         <v>0</v>
@@ -48667,7 +48667,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T32" s="15">
         <v>0</v>
@@ -48682,7 +48682,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y32" s="15">
         <v>0</v>
@@ -48812,25 +48812,25 @@
         <v>0</v>
       </c>
       <c r="X33" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="15">
         <v>12</v>
-      </c>
-      <c r="Y33" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="15">
-        <v>0</v>
       </c>
       <c r="AE33" s="15">
         <v>0</v>
@@ -48927,7 +48927,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="15">
-        <v>6.6</v>
+        <v>22</v>
       </c>
       <c r="T34" s="15">
         <v>0</v>
@@ -48942,7 +48942,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="15">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="15">
         <v>0</v>
@@ -49057,7 +49057,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T35" s="15">
         <v>0</v>
@@ -49072,7 +49072,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="15">
         <v>0</v>
@@ -49453,7 +49453,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="15">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="V38" s="15">
         <v>0</v>
@@ -49474,7 +49474,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC38" s="15">
         <v>0</v>
@@ -49483,7 +49483,7 @@
         <v>0</v>
       </c>
       <c r="AE38" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="15">
         <v>0</v>
@@ -49577,7 +49577,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="T39" s="15">
         <v>0</v>
@@ -49604,7 +49604,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AC39" s="15">
         <v>0</v>
@@ -49864,16 +49864,16 @@
         <v>0</v>
       </c>
       <c r="AB41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="15">
         <v>0.6</v>
-      </c>
-      <c r="AC41" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="15">
-        <v>0</v>
       </c>
       <c r="AF41" s="15">
         <v>0</v>
@@ -49967,7 +49967,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="T42" s="15">
         <v>0</v>
@@ -50003,7 +50003,7 @@
         <v>0</v>
       </c>
       <c r="AE42" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AF42" s="15">
         <v>0</v>
@@ -50133,7 +50133,7 @@
         <v>0</v>
       </c>
       <c r="AE43" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="15">
         <v>0</v>
@@ -50233,7 +50233,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="15">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="V44" s="15">
         <v>0</v>
@@ -50263,7 +50263,7 @@
         <v>0</v>
       </c>
       <c r="AE44" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AF44" s="15">
         <v>0</v>
@@ -50357,7 +50357,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="T45" s="15">
         <v>0</v>
@@ -50384,7 +50384,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AC45" s="15">
         <v>0</v>
@@ -50617,34 +50617,34 @@
         <v>0</v>
       </c>
       <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+      <c r="X47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T47" s="15">
-        <v>0</v>
-      </c>
-      <c r="U47" s="15">
-        <v>0</v>
-      </c>
-      <c r="V47" s="15">
-        <v>0</v>
-      </c>
-      <c r="W47" s="15">
-        <v>0</v>
-      </c>
-      <c r="X47" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="15">
-        <v>0</v>
       </c>
       <c r="AC47" s="15">
         <v>0</v>
@@ -50747,13 +50747,13 @@
         <v>0</v>
       </c>
       <c r="S48" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="T48" s="15">
         <v>0</v>
       </c>
       <c r="U48" s="15">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="V48" s="15">
         <v>0</v>
@@ -50783,7 +50783,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AF48" s="15">
         <v>0</v>
@@ -51007,7 +51007,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="T50" s="15">
         <v>0</v>
@@ -51034,7 +51034,7 @@
         <v>0</v>
       </c>
       <c r="AB50" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC50" s="15">
         <v>0</v>
@@ -51043,7 +51043,7 @@
         <v>0</v>
       </c>
       <c r="AE50" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="15">
         <v>0</v>
@@ -51137,7 +51137,7 @@
         <v>0</v>
       </c>
       <c r="S51" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="T51" s="15">
         <v>0</v>
@@ -51164,7 +51164,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC51" s="15">
         <v>0</v>
@@ -51294,7 +51294,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC52" s="15">
         <v>0</v>
@@ -51312,7 +51312,7 @@
         <v>0</v>
       </c>
       <c r="AH52" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AI52" s="15">
         <v>0</v>
@@ -51403,7 +51403,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="15">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="V53" s="15">
         <v>0</v>
@@ -51442,7 +51442,7 @@
         <v>0</v>
       </c>
       <c r="AH53" s="15">
-        <v>0.42</v>
+        <v>0.6</v>
       </c>
       <c r="AI53" s="15">
         <v>0</v>
@@ -51533,7 +51533,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="15">
-        <v>0.18</v>
+        <v>0.6</v>
       </c>
       <c r="V54" s="15">
         <v>0</v>
@@ -51572,7 +51572,7 @@
         <v>0</v>
       </c>
       <c r="AH54" s="15">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="15">
         <v>0</v>
@@ -51663,7 +51663,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="15">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="V55" s="15">
         <v>0</v>
@@ -51702,7 +51702,7 @@
         <v>0</v>
       </c>
       <c r="AH55" s="15">
-        <v>0.42</v>
+        <v>0.6</v>
       </c>
       <c r="AI55" s="15">
         <v>0</v>
@@ -51843,13 +51843,13 @@
         <v>0</v>
       </c>
       <c r="AK56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="15">
         <v>15</v>
-      </c>
-      <c r="AL56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM56" s="15">
-        <v>0</v>
       </c>
       <c r="AN56" s="15">
         <v>0</v>
@@ -51972,10 +51972,10 @@
         <v>0</v>
       </c>
       <c r="AK57" s="15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL57" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM57" s="15">
         <v>0</v>
@@ -52101,10 +52101,10 @@
         <v>0</v>
       </c>
       <c r="AK58" s="15">
-        <v>14</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AL58" s="15">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AM58" s="15">
         <v>0</v>
@@ -52359,10 +52359,10 @@
         <v>0</v>
       </c>
       <c r="AK60" s="15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL60" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM60" s="15">
         <v>0</v>
@@ -52488,13 +52488,13 @@
         <v>0</v>
       </c>
       <c r="AK61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="15">
         <v>12</v>
-      </c>
-      <c r="AL61" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM61" s="15">
-        <v>0</v>
       </c>
       <c r="AN61" s="15">
         <v>0</v>
@@ -52617,13 +52617,13 @@
         <v>0</v>
       </c>
       <c r="AK62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="15">
         <v>22</v>
-      </c>
-      <c r="AL62" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM62" s="15">
-        <v>0</v>
       </c>
       <c r="AN62" s="15">
         <v>0</v>
@@ -52746,13 +52746,13 @@
         <v>0</v>
       </c>
       <c r="AK63" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AM63" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN63" s="15">
         <v>0</v>
@@ -53013,13 +53013,13 @@
         <v>0</v>
       </c>
       <c r="AN65" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO65" s="15">
         <v>0</v>
       </c>
       <c r="AP65" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ65" s="15">
         <v>0</v>
@@ -53142,13 +53142,13 @@
         <v>0</v>
       </c>
       <c r="AN66" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO66" s="15">
         <v>0</v>
       </c>
       <c r="AP66" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ66" s="15">
         <v>0</v>
@@ -53406,7 +53406,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ68" s="15">
         <v>0</v>
@@ -53535,7 +53535,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ69" s="15">
         <v>0</v>
@@ -53658,13 +53658,13 @@
         <v>0</v>
       </c>
       <c r="AN70" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO70" s="15">
         <v>0</v>
       </c>
       <c r="AP70" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ70" s="15">
         <v>0</v>
@@ -53916,13 +53916,13 @@
         <v>0</v>
       </c>
       <c r="AN72" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO72" s="15">
         <v>0</v>
       </c>
       <c r="AP72" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ72" s="15">
         <v>0</v>
@@ -54045,13 +54045,13 @@
         <v>0</v>
       </c>
       <c r="AN73" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO73" s="15">
         <v>0</v>
       </c>
       <c r="AP73" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ73" s="15">
         <v>0</v>
@@ -54174,13 +54174,13 @@
         <v>0</v>
       </c>
       <c r="AN74" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO74" s="15">
         <v>0</v>
       </c>
       <c r="AP74" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ74" s="15">
         <v>0</v>
@@ -54303,13 +54303,13 @@
         <v>0</v>
       </c>
       <c r="AN75" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO75" s="15">
         <v>0</v>
       </c>
       <c r="AP75" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ75" s="15">
         <v>0</v>
@@ -54432,13 +54432,13 @@
         <v>0</v>
       </c>
       <c r="AN76" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO76" s="15">
         <v>0</v>
       </c>
       <c r="AP76" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ76" s="15">
         <v>0</v>
@@ -54567,7 +54567,7 @@
         <v>0</v>
       </c>
       <c r="AP77" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ77" s="15">
         <v>0</v>
@@ -54690,13 +54690,13 @@
         <v>0</v>
       </c>
       <c r="AN78" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO78" s="15">
         <v>0</v>
       </c>
       <c r="AP78" s="15">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="AQ78" s="15">
         <v>0</v>
@@ -54819,13 +54819,13 @@
         <v>0</v>
       </c>
       <c r="AN79" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO79" s="15">
         <v>0</v>
       </c>
       <c r="AP79" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ79" s="15">
         <v>0</v>
@@ -55474,7 +55474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AS89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C56" sqref="C56:AQ83"/>
     </sheetView>
   </sheetViews>
@@ -55632,19 +55632,19 @@
         <v>0</v>
       </c>
       <c r="F2" s="15">
+        <v>56</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
         <v>24</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15">
-        <v>56</v>
-      </c>
-      <c r="J2" s="15">
-        <v>0</v>
       </c>
       <c r="K2" s="15">
         <v>0</v>
@@ -55762,7 +55762,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <v>16.5</v>
+        <v>27.9</v>
       </c>
       <c r="G3" s="15">
         <v>0</v>
@@ -55771,7 +55771,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="15">
-        <v>38.5</v>
+        <v>27.1</v>
       </c>
       <c r="J3" s="15">
         <v>0</v>
@@ -55892,7 +55892,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="15">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="G4" s="15">
         <v>0</v>
@@ -55901,7 +55901,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="15">
-        <v>35</v>
+        <v>24.5</v>
       </c>
       <c r="J4" s="15">
         <v>0</v>
@@ -56022,16 +56022,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="15">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
       </c>
       <c r="H5" s="15">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I5" s="15">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="J5" s="15">
         <v>0</v>
@@ -56158,10 +56158,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="15">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I6" s="15">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="J6" s="15">
         <v>0</v>
@@ -56288,10 +56288,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="15">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="I7" s="15">
-        <v>55</v>
+        <v>38.5</v>
       </c>
       <c r="J7" s="15">
         <v>0</v>
@@ -56406,7 +56406,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="15">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E8" s="15">
         <v>0</v>
@@ -56430,7 +56430,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="15">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M8" s="15">
         <v>0</v>
@@ -56557,10 +56557,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="15">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="L9" s="15">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="M9" s="15">
         <v>0</v>
@@ -56687,10 +56687,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L10" s="15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M10" s="15">
         <v>0</v>
@@ -56796,7 +56796,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="15">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="15">
         <v>0</v>
@@ -56817,7 +56817,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="15">
-        <v>31.5</v>
+        <v>45</v>
       </c>
       <c r="L11" s="15">
         <v>0</v>
@@ -57056,31 +57056,31 @@
         <v>0</v>
       </c>
       <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
         <v>6</v>
       </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
-        <v>14</v>
-      </c>
       <c r="L13" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M13" s="15">
         <v>0</v>
@@ -57186,7 +57186,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="15">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="E14" s="15">
         <v>0</v>
@@ -57207,10 +57207,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="15">
-        <v>32.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="L14" s="15">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="M14" s="15">
         <v>0</v>
@@ -57316,7 +57316,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E15" s="15">
         <v>0</v>
@@ -57340,7 +57340,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="15">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M15" s="15">
         <v>0</v>
@@ -57446,7 +57446,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="15">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E16" s="15">
         <v>0</v>
@@ -57467,7 +57467,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="15">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L16" s="15">
         <v>0</v>
@@ -57576,7 +57576,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="15">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E17" s="15">
         <v>0</v>
@@ -57597,10 +57597,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="15">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="L17" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M17" s="15">
         <v>0</v>
@@ -57727,10 +57727,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="15">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="L18" s="15">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="M18" s="15">
         <v>0</v>
@@ -57836,7 +57836,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="15">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="E19" s="15">
         <v>0</v>
@@ -57857,10 +57857,10 @@
         <v>0</v>
       </c>
       <c r="K19" s="15">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L19" s="15">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="M19" s="15">
         <v>0</v>
@@ -57966,7 +57966,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="15">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="E20" s="15">
         <v>0</v>
@@ -57990,7 +57990,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="15">
-        <v>44</v>
+        <v>13.2</v>
       </c>
       <c r="M20" s="15">
         <v>0</v>
@@ -58096,7 +58096,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E21" s="15">
         <v>0</v>
@@ -58117,10 +58117,10 @@
         <v>0</v>
       </c>
       <c r="K21" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L21" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M21" s="15">
         <v>0</v>
@@ -58259,7 +58259,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="15">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="P22" s="15">
         <v>0</v>
@@ -58359,7 +58359,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="15">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="F23" s="15">
         <v>0</v>
@@ -58389,7 +58389,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="15">
-        <v>13</v>
+        <v>3.9</v>
       </c>
       <c r="P23" s="15">
         <v>0</v>
@@ -58489,7 +58489,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="15">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F24" s="15">
         <v>0</v>
@@ -58519,7 +58519,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="15">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="P24" s="15">
         <v>0</v>
@@ -58619,7 +58619,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="15">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="F25" s="15">
         <v>0</v>
@@ -58646,10 +58646,10 @@
         <v>0</v>
       </c>
       <c r="N25" s="15">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="O25" s="15">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P25" s="15">
         <v>0</v>
@@ -58749,7 +58749,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="15">
-        <v>8.1</v>
+        <v>12</v>
       </c>
       <c r="F26" s="15">
         <v>0</v>
@@ -58773,13 +58773,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N26" s="15">
         <v>0</v>
       </c>
       <c r="O26" s="15">
-        <v>18.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P26" s="15">
         <v>0</v>
@@ -58879,7 +58879,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="15">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F27" s="15">
         <v>0</v>
@@ -58909,7 +58909,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P27" s="15">
         <v>0</v>
@@ -59051,7 +59051,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="15">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="T28" s="15">
         <v>0</v>
@@ -59066,7 +59066,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="15">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="15">
         <v>0</v>
@@ -59193,10 +59193,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="15">
-        <v>0</v>
+        <v>4.9124999999999996</v>
       </c>
       <c r="X29" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="15">
         <v>0</v>
@@ -59214,7 +59214,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="15">
-        <v>0</v>
+        <v>5.0875000000000004</v>
       </c>
       <c r="AE29" s="15">
         <v>0</v>
@@ -59441,7 +59441,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="15">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T31" s="15">
         <v>0</v>
@@ -59456,7 +59456,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="15">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="15">
         <v>0</v>
@@ -59474,7 +59474,7 @@
         <v>0</v>
       </c>
       <c r="AD31" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE31" s="15">
         <v>0</v>
@@ -59701,7 +59701,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="15">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="T33" s="15">
         <v>0</v>
@@ -59716,7 +59716,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="15">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="Y33" s="15">
         <v>0</v>
@@ -59831,7 +59831,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="15">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="T34" s="15">
         <v>0</v>
@@ -59846,7 +59846,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="15">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="15">
         <v>0</v>
@@ -59961,7 +59961,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="15">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="T35" s="15">
         <v>0</v>
@@ -59976,7 +59976,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="15">
         <v>0</v>
@@ -60091,7 +60091,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="T36" s="15">
         <v>0</v>
@@ -60118,7 +60118,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AC36" s="15">
         <v>0</v>
@@ -60227,7 +60227,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="15">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="V37" s="15">
         <v>0</v>
@@ -60257,7 +60257,7 @@
         <v>0</v>
       </c>
       <c r="AE37" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AF37" s="15">
         <v>0</v>
@@ -60378,7 +60378,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="15">
         <v>0</v>
@@ -60481,43 +60481,43 @@
         <v>0</v>
       </c>
       <c r="S39" s="15">
+        <v>0</v>
+      </c>
+      <c r="T39" s="15">
+        <v>0</v>
+      </c>
+      <c r="U39" s="15">
+        <v>0</v>
+      </c>
+      <c r="V39" s="15">
+        <v>0</v>
+      </c>
+      <c r="W39" s="15">
+        <v>0</v>
+      </c>
+      <c r="X39" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T39" s="15">
-        <v>0</v>
-      </c>
-      <c r="U39" s="15">
-        <v>0</v>
-      </c>
-      <c r="V39" s="15">
-        <v>0</v>
-      </c>
-      <c r="W39" s="15">
-        <v>0</v>
-      </c>
-      <c r="X39" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="15">
-        <v>0</v>
       </c>
       <c r="AF39" s="15">
         <v>0</v>
@@ -60617,7 +60617,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="15">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="V40" s="15">
         <v>0</v>
@@ -60638,7 +60638,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AC40" s="15">
         <v>0</v>
@@ -60741,7 +60741,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="T41" s="15">
         <v>0</v>
@@ -60768,7 +60768,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC41" s="15">
         <v>0</v>
@@ -60898,7 +60898,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC42" s="15">
         <v>0</v>
@@ -60907,7 +60907,7 @@
         <v>0</v>
       </c>
       <c r="AE42" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="15">
         <v>0</v>
@@ -61007,7 +61007,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="15">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="V43" s="15">
         <v>0</v>
@@ -61028,7 +61028,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC43" s="15">
         <v>0</v>
@@ -61037,7 +61037,7 @@
         <v>0</v>
       </c>
       <c r="AE43" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="15">
         <v>0</v>
@@ -61391,13 +61391,13 @@
         <v>0</v>
       </c>
       <c r="S46" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="T46" s="15">
         <v>0</v>
       </c>
       <c r="U46" s="15">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="V46" s="15">
         <v>0</v>
@@ -61427,7 +61427,7 @@
         <v>0</v>
       </c>
       <c r="AE46" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AF46" s="15">
         <v>0</v>
@@ -61527,7 +61527,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="15">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="V47" s="15">
         <v>0</v>
@@ -61557,7 +61557,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AF47" s="15">
         <v>0</v>
@@ -61678,7 +61678,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC48" s="15">
         <v>0</v>
@@ -61687,7 +61687,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="15">
         <v>0</v>
@@ -61781,7 +61781,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="T49" s="15">
         <v>0</v>
@@ -61808,7 +61808,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC49" s="15">
         <v>0</v>
@@ -61817,7 +61817,7 @@
         <v>0</v>
       </c>
       <c r="AE49" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="15">
         <v>0</v>
@@ -61911,43 +61911,43 @@
         <v>0</v>
       </c>
       <c r="S50" s="15">
+        <v>0</v>
+      </c>
+      <c r="T50" s="15">
+        <v>0</v>
+      </c>
+      <c r="U50" s="15">
+        <v>0</v>
+      </c>
+      <c r="V50" s="15">
+        <v>0</v>
+      </c>
+      <c r="W50" s="15">
+        <v>0</v>
+      </c>
+      <c r="X50" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T50" s="15">
-        <v>0</v>
-      </c>
-      <c r="U50" s="15">
-        <v>0</v>
-      </c>
-      <c r="V50" s="15">
-        <v>0</v>
-      </c>
-      <c r="W50" s="15">
-        <v>0</v>
-      </c>
-      <c r="X50" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="15">
-        <v>0</v>
       </c>
       <c r="AF50" s="15">
         <v>0</v>
@@ -62068,16 +62068,16 @@
         <v>0</v>
       </c>
       <c r="AB51" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="15">
         <v>0.6</v>
-      </c>
-      <c r="AC51" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="15">
-        <v>0</v>
       </c>
       <c r="AF51" s="15">
         <v>0</v>
@@ -62171,35 +62171,35 @@
         <v>0</v>
       </c>
       <c r="S52" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="T52" s="15">
         <v>0</v>
       </c>
       <c r="U52" s="15">
+        <v>0</v>
+      </c>
+      <c r="V52" s="15">
+        <v>0</v>
+      </c>
+      <c r="W52" s="15">
+        <v>0</v>
+      </c>
+      <c r="X52" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="15">
         <v>0.18</v>
       </c>
-      <c r="V52" s="15">
-        <v>0</v>
-      </c>
-      <c r="W52" s="15">
-        <v>0</v>
-      </c>
-      <c r="X52" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="15">
-        <v>0</v>
-      </c>
       <c r="AC52" s="15">
         <v>0</v>
       </c>
@@ -62216,7 +62216,7 @@
         <v>0</v>
       </c>
       <c r="AH52" s="15">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AI52" s="15">
         <v>0</v>
@@ -62561,7 +62561,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T55" s="15">
         <v>0</v>
@@ -62606,7 +62606,7 @@
         <v>0</v>
       </c>
       <c r="AH55" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AI55" s="15">
         <v>0</v>
@@ -62747,13 +62747,13 @@
         <v>0</v>
       </c>
       <c r="AK56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="15">
         <v>15</v>
-      </c>
-      <c r="AL56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM56" s="15">
-        <v>0</v>
       </c>
       <c r="AN56" s="15">
         <v>0</v>
@@ -62876,10 +62876,10 @@
         <v>0</v>
       </c>
       <c r="AK57" s="15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL57" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM57" s="15">
         <v>0</v>
@@ -63005,10 +63005,10 @@
         <v>0</v>
       </c>
       <c r="AK58" s="15">
-        <v>14</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AL58" s="15">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AM58" s="15">
         <v>0</v>
@@ -63263,10 +63263,10 @@
         <v>0</v>
       </c>
       <c r="AK60" s="15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL60" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM60" s="15">
         <v>0</v>
@@ -63392,13 +63392,13 @@
         <v>0</v>
       </c>
       <c r="AK61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="15">
         <v>12</v>
-      </c>
-      <c r="AL61" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM61" s="15">
-        <v>0</v>
       </c>
       <c r="AN61" s="15">
         <v>0</v>
@@ -63521,13 +63521,13 @@
         <v>0</v>
       </c>
       <c r="AK62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="15">
         <v>22</v>
-      </c>
-      <c r="AL62" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM62" s="15">
-        <v>0</v>
       </c>
       <c r="AN62" s="15">
         <v>0</v>
@@ -63650,13 +63650,13 @@
         <v>0</v>
       </c>
       <c r="AK63" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AM63" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN63" s="15">
         <v>0</v>
@@ -63788,13 +63788,13 @@
         <v>0</v>
       </c>
       <c r="AN64" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO64" s="15">
         <v>0</v>
       </c>
       <c r="AP64" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ64" s="15">
         <v>0</v>
@@ -63923,7 +63923,7 @@
         <v>0</v>
       </c>
       <c r="AP65" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ65" s="15">
         <v>0</v>
@@ -64046,7 +64046,7 @@
         <v>0</v>
       </c>
       <c r="AN66" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AO66" s="15">
         <v>0</v>
@@ -64181,7 +64181,7 @@
         <v>0</v>
       </c>
       <c r="AP67" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ67" s="15">
         <v>0</v>
@@ -64304,13 +64304,13 @@
         <v>0</v>
       </c>
       <c r="AN68" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO68" s="15">
         <v>0</v>
       </c>
       <c r="AP68" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ68" s="15">
         <v>0</v>
@@ -64433,7 +64433,7 @@
         <v>0</v>
       </c>
       <c r="AN69" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AO69" s="15">
         <v>0</v>
@@ -64562,13 +64562,13 @@
         <v>0</v>
       </c>
       <c r="AN70" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AO70" s="15">
         <v>0</v>
       </c>
       <c r="AP70" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ70" s="15">
         <v>0</v>
@@ -64691,7 +64691,7 @@
         <v>0</v>
       </c>
       <c r="AN71" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AO71" s="15">
         <v>0</v>
@@ -64820,13 +64820,13 @@
         <v>0</v>
       </c>
       <c r="AN72" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AO72" s="15">
         <v>0</v>
       </c>
       <c r="AP72" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ72" s="15">
         <v>0</v>
@@ -64955,7 +64955,7 @@
         <v>0</v>
       </c>
       <c r="AP73" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ73" s="15">
         <v>0</v>
@@ -65078,13 +65078,13 @@
         <v>0</v>
       </c>
       <c r="AN74" s="15">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="AO74" s="15">
         <v>0</v>
       </c>
       <c r="AP74" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ74" s="15">
         <v>0</v>
@@ -65207,7 +65207,7 @@
         <v>0</v>
       </c>
       <c r="AN75" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AO75" s="15">
         <v>0</v>
@@ -65336,7 +65336,7 @@
         <v>0</v>
       </c>
       <c r="AN76" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AO76" s="15">
         <v>0</v>
@@ -65471,7 +65471,7 @@
         <v>0</v>
       </c>
       <c r="AP77" s="15">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="AQ77" s="15">
         <v>0</v>
@@ -65600,7 +65600,7 @@
         <v>0</v>
       </c>
       <c r="AP78" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ78" s="15">
         <v>0</v>
@@ -65723,13 +65723,13 @@
         <v>0</v>
       </c>
       <c r="AN79" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO79" s="15">
         <v>0</v>
       </c>
       <c r="AP79" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ79" s="15">
         <v>0</v>
@@ -66379,7 +66379,7 @@
   <dimension ref="A1:AS89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L91" sqref="L91"/>
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -66542,10 +66542,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="15">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" s="15">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J2" s="15">
         <v>0</v>
@@ -66675,10 +66675,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
         <v>55</v>
-      </c>
-      <c r="J3" s="15">
-        <v>0</v>
       </c>
       <c r="K3" s="15">
         <v>0</v>
@@ -66802,10 +66802,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="15">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I4" s="15">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J4" s="15">
         <v>0</v>
@@ -66935,10 +66935,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="15">
-        <v>72</v>
+        <v>50.4</v>
       </c>
       <c r="J5" s="15">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="K5" s="15">
         <v>0</v>
@@ -67065,10 +67065,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="15">
-        <v>68</v>
+        <v>47.6</v>
       </c>
       <c r="J6" s="15">
-        <v>0</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="K6" s="15">
         <v>0</v>
@@ -67192,10 +67192,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="15">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I7" s="15">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J7" s="15">
         <v>0</v>
@@ -67310,7 +67310,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="15">
         <v>0</v>
@@ -67331,10 +67331,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L8" s="15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M8" s="15">
         <v>0</v>
@@ -67461,10 +67461,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="15">
-        <v>25</v>
+        <v>7.5</v>
       </c>
       <c r="L9" s="15">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="M9" s="15">
         <v>0</v>
@@ -67570,7 +67570,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E10" s="15">
         <v>0</v>
@@ -67591,10 +67591,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L10" s="15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M10" s="15">
         <v>0</v>
@@ -67700,7 +67700,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="15">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="E11" s="15">
         <v>0</v>
@@ -67724,7 +67724,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="15">
-        <v>45</v>
+        <v>13.5</v>
       </c>
       <c r="M11" s="15">
         <v>0</v>
@@ -67830,7 +67830,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="15">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E12" s="15">
         <v>0</v>
@@ -67851,10 +67851,10 @@
         <v>0</v>
       </c>
       <c r="K12" s="15">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L12" s="15">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="M12" s="15">
         <v>0</v>
@@ -67981,10 +67981,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
         <v>20</v>
-      </c>
-      <c r="L13" s="15">
-        <v>0</v>
       </c>
       <c r="M13" s="15">
         <v>0</v>
@@ -68090,7 +68090,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="15">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="E14" s="15">
         <v>0</v>
@@ -68111,10 +68111,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="15">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="L14" s="15">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="M14" s="15">
         <v>0</v>
@@ -68220,7 +68220,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E15" s="15">
         <v>0</v>
@@ -68241,7 +68241,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="15">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
@@ -68480,7 +68480,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="15">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E17" s="15">
         <v>0</v>
@@ -68501,7 +68501,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="15">
-        <v>25</v>
+        <v>7.5</v>
       </c>
       <c r="L17" s="15">
         <v>0</v>
@@ -68631,10 +68631,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="15">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="L18" s="15">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="M18" s="15">
         <v>0</v>
@@ -68743,7 +68743,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="15">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="F19" s="15">
         <v>0</v>
@@ -68764,7 +68764,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="15">
-        <v>55</v>
+        <v>16.5</v>
       </c>
       <c r="M19" s="15">
         <v>0</v>
@@ -69417,13 +69417,13 @@
         <v>0</v>
       </c>
       <c r="M24" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N24" s="15">
         <v>0</v>
       </c>
       <c r="O24" s="15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P24" s="15">
         <v>0</v>
@@ -69677,13 +69677,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="15">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="N26" s="15">
         <v>0</v>
       </c>
       <c r="O26" s="15">
-        <v>27</v>
+        <v>8.1</v>
       </c>
       <c r="P26" s="15">
         <v>0</v>
@@ -69955,7 +69955,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T28" s="15">
         <v>0</v>
@@ -69970,7 +69970,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="15">
         <v>0</v>
@@ -70085,7 +70085,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T29" s="15">
         <v>0</v>
@@ -70100,7 +70100,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="15">
         <v>0</v>
@@ -70118,7 +70118,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE29" s="15">
         <v>0</v>
@@ -70215,7 +70215,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T30" s="15">
         <v>0</v>
@@ -70230,7 +70230,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="15">
         <v>0</v>
@@ -70345,7 +70345,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="15">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T31" s="15">
         <v>0</v>
@@ -70360,7 +70360,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="15">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="Y31" s="15">
         <v>0</v>
@@ -70475,7 +70475,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T32" s="15">
         <v>0</v>
@@ -70487,10 +70487,10 @@
         <v>0</v>
       </c>
       <c r="W32" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X32" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="15">
         <v>0</v>
@@ -70605,7 +70605,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T33" s="15">
         <v>0</v>
@@ -70620,7 +70620,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="15">
         <v>0</v>
@@ -70735,7 +70735,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="15">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="T34" s="15">
         <v>0</v>
@@ -70750,7 +70750,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="15">
-        <v>22</v>
+        <v>6.6</v>
       </c>
       <c r="Y34" s="15">
         <v>0</v>
@@ -70995,43 +70995,43 @@
         <v>0</v>
       </c>
       <c r="S36" s="15">
+        <v>0</v>
+      </c>
+      <c r="T36" s="15">
+        <v>0</v>
+      </c>
+      <c r="U36" s="15">
+        <v>0</v>
+      </c>
+      <c r="V36" s="15">
+        <v>0</v>
+      </c>
+      <c r="W36" s="15">
+        <v>0</v>
+      </c>
+      <c r="X36" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T36" s="15">
-        <v>0</v>
-      </c>
-      <c r="U36" s="15">
-        <v>0</v>
-      </c>
-      <c r="V36" s="15">
-        <v>0</v>
-      </c>
-      <c r="W36" s="15">
-        <v>0</v>
-      </c>
-      <c r="X36" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="15">
-        <v>0</v>
       </c>
       <c r="AF36" s="15">
         <v>0</v>
@@ -71125,43 +71125,43 @@
         <v>0</v>
       </c>
       <c r="S37" s="15">
+        <v>0</v>
+      </c>
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>0</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+      <c r="X37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T37" s="15">
-        <v>0</v>
-      </c>
-      <c r="U37" s="15">
-        <v>0</v>
-      </c>
-      <c r="V37" s="15">
-        <v>0</v>
-      </c>
-      <c r="W37" s="15">
-        <v>0</v>
-      </c>
-      <c r="X37" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="15">
-        <v>0</v>
       </c>
       <c r="AF37" s="15">
         <v>0</v>
@@ -71255,43 +71255,43 @@
         <v>0</v>
       </c>
       <c r="S38" s="15">
+        <v>0</v>
+      </c>
+      <c r="T38" s="15">
+        <v>0</v>
+      </c>
+      <c r="U38" s="15">
+        <v>0</v>
+      </c>
+      <c r="V38" s="15">
+        <v>0</v>
+      </c>
+      <c r="W38" s="15">
+        <v>0</v>
+      </c>
+      <c r="X38" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T38" s="15">
-        <v>0</v>
-      </c>
-      <c r="U38" s="15">
-        <v>0</v>
-      </c>
-      <c r="V38" s="15">
-        <v>0</v>
-      </c>
-      <c r="W38" s="15">
-        <v>0</v>
-      </c>
-      <c r="X38" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="15">
-        <v>0</v>
       </c>
       <c r="AF38" s="15">
         <v>0</v>
@@ -71412,7 +71412,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC39" s="15">
         <v>0</v>
@@ -71421,7 +71421,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="15">
         <v>0</v>
@@ -71515,46 +71515,46 @@
         <v>0</v>
       </c>
       <c r="S40" s="15">
+        <v>0</v>
+      </c>
+      <c r="T40" s="15">
+        <v>0</v>
+      </c>
+      <c r="U40" s="15">
+        <v>0</v>
+      </c>
+      <c r="V40" s="15">
+        <v>0</v>
+      </c>
+      <c r="W40" s="15">
+        <v>0</v>
+      </c>
+      <c r="X40" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T40" s="15">
-        <v>0</v>
-      </c>
-      <c r="U40" s="15">
-        <v>0</v>
-      </c>
-      <c r="V40" s="15">
-        <v>0</v>
-      </c>
-      <c r="W40" s="15">
-        <v>0</v>
-      </c>
-      <c r="X40" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="15">
-        <v>0</v>
       </c>
       <c r="AG40" s="15">
         <v>0</v>
@@ -71802,7 +71802,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC42" s="15">
         <v>0</v>
@@ -71811,7 +71811,7 @@
         <v>0</v>
       </c>
       <c r="AE42" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="15">
         <v>0</v>
@@ -71905,34 +71905,34 @@
         <v>0</v>
       </c>
       <c r="S43" s="15">
+        <v>0</v>
+      </c>
+      <c r="T43" s="15">
+        <v>0</v>
+      </c>
+      <c r="U43" s="15">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15">
+        <v>0</v>
+      </c>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+      <c r="X43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T43" s="15">
-        <v>0</v>
-      </c>
-      <c r="U43" s="15">
-        <v>0</v>
-      </c>
-      <c r="V43" s="15">
-        <v>0</v>
-      </c>
-      <c r="W43" s="15">
-        <v>0</v>
-      </c>
-      <c r="X43" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="15">
-        <v>0</v>
       </c>
       <c r="AC43" s="15">
         <v>0</v>
@@ -72035,43 +72035,43 @@
         <v>0</v>
       </c>
       <c r="S44" s="15">
+        <v>0</v>
+      </c>
+      <c r="T44" s="15">
+        <v>0</v>
+      </c>
+      <c r="U44" s="15">
+        <v>0</v>
+      </c>
+      <c r="V44" s="15">
+        <v>0</v>
+      </c>
+      <c r="W44" s="15">
+        <v>0</v>
+      </c>
+      <c r="X44" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="15">
         <v>0.6</v>
-      </c>
-      <c r="T44" s="15">
-        <v>0</v>
-      </c>
-      <c r="U44" s="15">
-        <v>0</v>
-      </c>
-      <c r="V44" s="15">
-        <v>0</v>
-      </c>
-      <c r="W44" s="15">
-        <v>0</v>
-      </c>
-      <c r="X44" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="15">
-        <v>0</v>
       </c>
       <c r="AF44" s="15">
         <v>0</v>
@@ -72165,7 +72165,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="T45" s="15">
         <v>0</v>
@@ -72322,7 +72322,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC46" s="15">
         <v>0</v>
@@ -72331,7 +72331,7 @@
         <v>0</v>
       </c>
       <c r="AE46" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="15">
         <v>0</v>
@@ -72582,7 +72582,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC48" s="15">
         <v>0</v>
@@ -72591,7 +72591,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="15">
         <v>0</v>
@@ -72685,7 +72685,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="T49" s="15">
         <v>0</v>
@@ -72712,10 +72712,10 @@
         <v>0</v>
       </c>
       <c r="AB49" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC49" s="15">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="AD49" s="15">
         <v>0</v>
@@ -73102,7 +73102,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC52" s="15">
         <v>0</v>
@@ -73120,7 +73120,7 @@
         <v>0</v>
       </c>
       <c r="AH52" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AI52" s="15">
         <v>0</v>
@@ -73211,7 +73211,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="15">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="V53" s="15">
         <v>0</v>
@@ -73250,7 +73250,7 @@
         <v>0</v>
       </c>
       <c r="AH53" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AI53" s="15">
         <v>0</v>
@@ -73362,7 +73362,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC54" s="15">
         <v>0</v>
@@ -73380,7 +73380,7 @@
         <v>0</v>
       </c>
       <c r="AH54" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="15">
         <v>0</v>
@@ -73651,13 +73651,13 @@
         <v>0</v>
       </c>
       <c r="AK56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="15">
         <v>15</v>
-      </c>
-      <c r="AL56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM56" s="15">
-        <v>0</v>
       </c>
       <c r="AN56" s="15">
         <v>0</v>
@@ -73780,10 +73780,10 @@
         <v>0</v>
       </c>
       <c r="AK57" s="15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL57" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM57" s="15">
         <v>0</v>
@@ -73909,10 +73909,10 @@
         <v>0</v>
       </c>
       <c r="AK58" s="15">
-        <v>14</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AL58" s="15">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AM58" s="15">
         <v>0</v>
@@ -74167,10 +74167,10 @@
         <v>0</v>
       </c>
       <c r="AK60" s="15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL60" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM60" s="15">
         <v>0</v>
@@ -74296,13 +74296,13 @@
         <v>0</v>
       </c>
       <c r="AK61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="15">
         <v>12</v>
-      </c>
-      <c r="AL61" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM61" s="15">
-        <v>0</v>
       </c>
       <c r="AN61" s="15">
         <v>0</v>
@@ -74425,13 +74425,13 @@
         <v>0</v>
       </c>
       <c r="AK62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="15">
         <v>22</v>
-      </c>
-      <c r="AL62" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM62" s="15">
-        <v>0</v>
       </c>
       <c r="AN62" s="15">
         <v>0</v>
@@ -74554,13 +74554,13 @@
         <v>0</v>
       </c>
       <c r="AK63" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AM63" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN63" s="15">
         <v>0</v>
@@ -74698,7 +74698,7 @@
         <v>0</v>
       </c>
       <c r="AP64" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ64" s="15">
         <v>0</v>
@@ -74821,13 +74821,13 @@
         <v>0</v>
       </c>
       <c r="AN65" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO65" s="15">
         <v>0</v>
       </c>
       <c r="AP65" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ65" s="15">
         <v>0</v>
@@ -74950,13 +74950,13 @@
         <v>0</v>
       </c>
       <c r="AN66" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AO66" s="15">
         <v>0</v>
       </c>
       <c r="AP66" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ66" s="15">
         <v>0</v>
@@ -75085,7 +75085,7 @@
         <v>0</v>
       </c>
       <c r="AP67" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ67" s="15">
         <v>0</v>
@@ -75208,13 +75208,13 @@
         <v>0</v>
       </c>
       <c r="AN68" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO68" s="15">
         <v>0</v>
       </c>
       <c r="AP68" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ68" s="15">
         <v>0</v>
@@ -75337,7 +75337,7 @@
         <v>0</v>
       </c>
       <c r="AN69" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AO69" s="15">
         <v>0</v>
@@ -75466,7 +75466,7 @@
         <v>0</v>
       </c>
       <c r="AN70" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AO70" s="15">
         <v>0</v>
@@ -75595,7 +75595,7 @@
         <v>0</v>
       </c>
       <c r="AN71" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AO71" s="15">
         <v>0</v>
@@ -75724,7 +75724,7 @@
         <v>0</v>
       </c>
       <c r="AN72" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AO72" s="15">
         <v>0</v>
@@ -75853,7 +75853,7 @@
         <v>0</v>
       </c>
       <c r="AN73" s="15">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="AO73" s="15">
         <v>0</v>
@@ -75982,13 +75982,13 @@
         <v>0</v>
       </c>
       <c r="AN74" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO74" s="15">
         <v>0</v>
       </c>
       <c r="AP74" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AQ74" s="15">
         <v>0</v>
@@ -76111,13 +76111,13 @@
         <v>0</v>
       </c>
       <c r="AN75" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AO75" s="15">
         <v>0</v>
       </c>
       <c r="AP75" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ75" s="15">
         <v>0</v>
@@ -76240,13 +76240,13 @@
         <v>0</v>
       </c>
       <c r="AN76" s="15">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AO76" s="15">
         <v>0</v>
       </c>
       <c r="AP76" s="15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ76" s="15">
         <v>0</v>
@@ -76375,7 +76375,7 @@
         <v>0</v>
       </c>
       <c r="AP77" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ77" s="15">
         <v>0</v>
@@ -76504,7 +76504,7 @@
         <v>0</v>
       </c>
       <c r="AP78" s="15">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="AQ78" s="15">
         <v>0</v>
@@ -76633,7 +76633,7 @@
         <v>0</v>
       </c>
       <c r="AP79" s="15">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="AQ79" s="15">
         <v>0</v>
